--- a/config_5.11/game_module_config.xlsx
+++ b/config_5.11/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3827,6 +3827,18 @@
   </si>
   <si>
     <t>通用转盘皮肤</t>
+  </si>
+  <si>
+    <t>act_054_byns</t>
+  </si>
+  <si>
+    <t>捕鱼能手</t>
+  </si>
+  <si>
+    <t>Act_054_BYNSManager</t>
+  </si>
+  <si>
+    <t>2021年5月17日 23:59:59</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3922,11 +3934,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3945,8 +3964,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3954,7 +3974,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3974,9 +3994,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3990,33 +4009,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4029,6 +4025,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -4036,16 +4063,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4053,14 +4073,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4122,7 +4134,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4134,13 +4212,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,103 +4272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4260,7 +4284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4272,25 +4296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4319,6 +4331,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4330,6 +4366,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4359,63 +4428,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4424,10 +4436,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4436,139 +4448,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4718,6 +4730,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -5040,14 +5055,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
+      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13683,6 +13698,32 @@
       </c>
       <c r="I339" t="s">
         <v>996</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" spans="1:9">
+      <c r="A340" s="5">
+        <v>339</v>
+      </c>
+      <c r="B340" s="50" t="s">
+        <v>999</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D340" s="50" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E340" s="5">
+        <v>1</v>
+      </c>
+      <c r="F340" s="5">
+        <v>1</v>
+      </c>
+      <c r="G340" s="5">
+        <v>1</v>
+      </c>
+      <c r="I340" s="32" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -13712,7 +13753,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.11/game_module_config.xlsx
+++ b/config_5.11/game_module_config.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$340</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -33,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -506,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -517,7 +512,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -535,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -553,7 +548,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -571,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -669,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1262,7 +1257,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1357,7 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1392,7 +1387,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1427,7 +1422,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1445,7 +1440,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1471,7 +1466,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1506,7 +1501,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1541,7 +1536,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1644,7 +1639,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1679,7 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1714,7 +1709,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1749,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1784,7 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1819,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1854,7 +1849,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1983,7 +1978,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2009,7 +2004,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3475,7 +3470,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3786,7 +3781,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>欢乐礼包</t>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3850,16 +3848,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3871,7 +3871,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3883,13 +3883,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3907,13 +3907,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3925,19 +3925,156 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3951,21 +4088,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3980,13 +4104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4008,8 +4132,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4032,15 +4342,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4068,16 +4620,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4191,23 +4743,64 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4465,19 +5058,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C342" sqref="C342"/>
+      <selection pane="bottomRight" activeCell="E341" sqref="E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4493,7 +5087,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4522,7 +5116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5846,7 +6440,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6028,7 +6622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6392,7 +6986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6444,7 +7038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7562,7 +8156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1">
+    <row r="119" s="2" customFormat="1" spans="1:9">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9132,7 +9726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9156,7 +9750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9180,7 +9774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10202,7 +10796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10225,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10248,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10271,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10294,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10317,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10340,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10363,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10386,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -10956,7 +11550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="5" customFormat="1">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -10982,7 +11576,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11008,7 +11602,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11034,7 +11628,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1">
+    <row r="259" s="5" customFormat="1" spans="1:9">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11060,7 +11654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11138,7 +11732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11164,7 +11758,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11190,7 +11784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11216,7 +11810,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11242,7 +11836,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11268,7 +11862,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="5" customFormat="1">
+    <row r="268" s="5" customFormat="1" spans="1:9">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11456,7 +12050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -11482,7 +12076,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1">
+    <row r="276" s="6" customFormat="1" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11505,7 +12099,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -11659,7 +12253,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -11685,7 +12279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1">
+    <row r="284" s="7" customFormat="1" spans="1:9">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -11737,7 +12331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1">
+    <row r="286" s="7" customFormat="1" spans="1:9">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -11763,7 +12357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="7" customFormat="1">
+    <row r="287" s="7" customFormat="1" spans="1:9">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -11789,7 +12383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1">
+    <row r="288" s="6" customFormat="1" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11815,7 +12409,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="7" customFormat="1">
+    <row r="289" s="7" customFormat="1" spans="1:9">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -11841,7 +12435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="7" customFormat="1">
+    <row r="290" s="7" customFormat="1" spans="1:9">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -11867,7 +12461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="7" customFormat="1">
+    <row r="291" s="7" customFormat="1" spans="1:9">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -11893,7 +12487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="7" customFormat="1">
+    <row r="292" s="7" customFormat="1" spans="1:9">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -11919,7 +12513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="7" customFormat="1">
+    <row r="293" s="7" customFormat="1" spans="1:9">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -11945,7 +12539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="7" customFormat="1">
+    <row r="294" s="7" customFormat="1" spans="1:9">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -11971,7 +12565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="7" customFormat="1">
+    <row r="295" s="7" customFormat="1" spans="1:9">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12075,7 +12669,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:9">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12101,7 +12695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="5" customFormat="1">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12127,7 +12721,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="5" customFormat="1">
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12153,7 +12747,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="5" customFormat="1">
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12179,7 +12773,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="5" customFormat="1">
+    <row r="303" s="5" customFormat="1" spans="1:9">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12205,7 +12799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="5" customFormat="1">
+    <row r="304" s="5" customFormat="1" spans="1:9">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12231,7 +12825,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1">
+    <row r="305" s="5" customFormat="1" spans="1:9">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12257,7 +12851,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:9">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12283,7 +12877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="5" customFormat="1">
+    <row r="307" s="5" customFormat="1" spans="1:9">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12309,7 +12903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1">
+    <row r="308" s="5" customFormat="1" spans="1:9">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12335,7 +12929,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1">
+    <row r="309" s="5" customFormat="1" spans="1:9">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12361,7 +12955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1">
+    <row r="310" s="5" customFormat="1" spans="1:9">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12387,7 +12981,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1">
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12413,7 +13007,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="5" customFormat="1">
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -12436,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -12462,7 +13056,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -12488,7 +13082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="5" customFormat="1">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -12514,7 +13108,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -12540,7 +13134,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1">
+    <row r="317" s="6" customFormat="1" spans="1:9">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -12563,7 +13157,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="6" customFormat="1">
+    <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -12586,7 +13180,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="6" customFormat="1">
+    <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -12609,7 +13203,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="6" customFormat="1">
+    <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -12632,7 +13226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="6" customFormat="1">
+    <row r="321" s="6" customFormat="1" spans="1:9">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -12655,7 +13249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="6" customFormat="1">
+    <row r="322" s="6" customFormat="1" spans="1:9">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -12681,7 +13275,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1">
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -12705,7 +13299,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="5" customFormat="1">
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -12731,7 +13325,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="5" customFormat="1">
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -12754,7 +13348,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="5" customFormat="1">
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -12783,7 +13377,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="5" customFormat="1">
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -12809,7 +13403,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="5" customFormat="1">
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -12835,7 +13429,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" spans="1:9" s="5" customFormat="1">
+    <row r="329" s="5" customFormat="1" spans="1:9">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -12861,7 +13455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="5" customFormat="1">
+    <row r="330" s="5" customFormat="1" spans="1:9">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -12996,10 +13590,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13011,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="32" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13019,13 +13613,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C336" s="32" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13045,13 +13639,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C337" s="32" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
@@ -13063,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="32" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13071,13 +13665,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="48" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C338" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D338" s="49" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13089,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13097,37 +13691,37 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="C339" t="s">
+        <v>998</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="I339" t="s">
         <v>996</v>
       </c>
-      <c r="C339" t="s">
-        <v>997</v>
-      </c>
-      <c r="E339">
-        <v>1</v>
-      </c>
-      <c r="F339">
-        <v>1</v>
-      </c>
-      <c r="G339">
-        <v>1</v>
-      </c>
-      <c r="I339" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="15.75">
+    </row>
+    <row r="340" ht="15.75" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
-      <c r="B340" s="50" t="s">
-        <v>998</v>
+      <c r="B340" s="48" t="s">
+        <v>999</v>
       </c>
       <c r="C340" t="s">
-        <v>999</v>
-      </c>
-      <c r="D340" s="50" t="s">
         <v>1000</v>
       </c>
+      <c r="D340" s="48" t="s">
+        <v>1001</v>
+      </c>
       <c r="E340" s="5">
         <v>1</v>
       </c>
@@ -13138,40 +13732,43 @@
         <v>1</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H339"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:H340">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.11/game_module_config.xlsx
+++ b/config_5.11/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -501,7 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +517,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -530,7 +535,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -548,7 +553,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -566,7 +571,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1257,7 +1262,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1352,7 +1357,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1387,7 +1392,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1422,7 +1427,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1440,7 +1445,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1466,7 +1471,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1501,7 +1506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1536,7 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1639,7 +1644,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1674,7 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1709,7 +1714,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1744,7 +1749,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1779,7 +1784,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1814,7 +1819,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1849,7 +1854,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1978,7 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2004,7 +2009,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3470,7 +3475,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3781,9 +3786,6 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
-  </si>
-  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3836,18 +3838,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3859,7 +3859,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3871,13 +3871,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3895,13 +3895,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3913,156 +3913,19 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4076,8 +3939,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4092,13 +3968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4120,182 +3996,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4318,255 +4020,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4596,16 +4056,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4720,63 +4180,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5034,20 +4450,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C267" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
+      <selection pane="bottomRight" activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5063,7 +4478,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5092,7 +4507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6416,7 +5831,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6598,7 +6013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6962,7 +6377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7014,7 +6429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8132,7 +7547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9702,7 +9117,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9726,7 +9141,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9750,7 +9165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10772,7 +10187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10795,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10818,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10841,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10864,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10887,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10910,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10933,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10956,7 +10371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11526,7 +10941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11552,7 +10967,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11578,7 +10993,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11604,7 +11019,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11630,7 +11045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11708,7 +11123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11734,7 +11149,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11760,7 +11175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11786,7 +11201,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11812,7 +11227,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11838,7 +11253,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12026,7 +11441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12052,7 +11467,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12075,7 +11490,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12229,7 +11644,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12255,7 +11670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12307,7 +11722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12333,7 +11748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12359,7 +11774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12385,7 +11800,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12411,7 +11826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12437,7 +11852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12463,7 +11878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12489,7 +11904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12515,7 +11930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12541,7 +11956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12645,7 +12060,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12671,7 +12086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12697,7 +12112,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12723,7 +12138,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12749,7 +12164,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12775,7 +12190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12801,7 +12216,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12827,7 +12242,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12853,7 +12268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12879,7 +12294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12905,7 +12320,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12931,7 +12346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12957,7 +12372,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12983,7 +12398,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13006,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13032,7 +12447,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13058,7 +12473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13084,7 +12499,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13110,7 +12525,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13133,7 +12548,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13156,7 +12571,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13179,7 +12594,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13202,7 +12617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13225,7 +12640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13251,7 +12666,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13275,7 +12690,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13301,7 +12716,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13324,7 +12739,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13353,7 +12768,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13379,7 +12794,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13405,7 +12820,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13431,7 +12846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13566,22 +12981,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13589,13 +13004,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>986</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>987</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>988</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13615,25 +13030,25 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>989</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="D337" s="28" t="s">
+      <c r="E337" s="5">
+        <v>1</v>
+      </c>
+      <c r="F337" s="5">
+        <v>1</v>
+      </c>
+      <c r="G337" s="5">
+        <v>1</v>
+      </c>
+      <c r="I337" s="32" t="s">
         <v>991</v>
-      </c>
-      <c r="E337" s="5">
-        <v>1</v>
-      </c>
-      <c r="F337" s="5">
-        <v>1</v>
-      </c>
-      <c r="G337" s="5">
-        <v>1</v>
-      </c>
-      <c r="I337" s="32" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13641,25 +13056,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="48" t="s">
+        <v>992</v>
+      </c>
+      <c r="C338" t="s">
         <v>993</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" s="49" t="s">
         <v>994</v>
       </c>
-      <c r="D338" s="49" t="s">
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
         <v>995</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="I338" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13667,11 +13082,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="C339" t="s">
         <v>997</v>
       </c>
-      <c r="C339" t="s">
-        <v>998</v>
-      </c>
       <c r="E339">
         <v>1</v>
       </c>
@@ -13682,43 +13097,40 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H339">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H339"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.11/game_module_config.xlsx
+++ b/config_5.11/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -501,7 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +517,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -530,7 +535,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -548,7 +553,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -566,7 +571,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1257,7 +1262,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1352,7 +1357,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1387,7 +1392,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1422,7 +1427,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1440,7 +1445,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1466,7 +1471,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1501,7 +1506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1536,7 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1639,7 +1644,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1674,7 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1709,7 +1714,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1744,7 +1749,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1779,7 +1784,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1814,7 +1819,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1849,7 +1854,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1978,7 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2004,7 +2009,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3470,7 +3475,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3781,9 +3786,6 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
-  </si>
-  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3848,18 +3850,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3871,7 +3871,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3883,13 +3883,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3907,13 +3907,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3925,156 +3925,19 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4088,8 +3951,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4104,13 +3980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4132,182 +4008,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4330,255 +4032,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4608,16 +4068,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4735,63 +4195,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5049,20 +4465,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomRight" activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5078,7 +4493,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5107,7 +4522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6431,7 +5846,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6613,7 +6028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6977,7 +6392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7029,7 +6444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8147,7 +7562,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9717,7 +9132,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9741,7 +9156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9765,7 +9180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10787,7 +10202,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10810,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10833,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10856,7 +10271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10879,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10902,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10925,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10948,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10971,7 +10386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11541,7 +10956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11567,7 +10982,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11593,7 +11008,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11619,7 +11034,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11645,7 +11060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11723,7 +11138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11749,7 +11164,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11775,7 +11190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11801,7 +11216,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11827,7 +11242,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11853,7 +11268,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12041,7 +11456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12067,7 +11482,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12090,7 +11505,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12244,7 +11659,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12270,7 +11685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12322,7 +11737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12348,7 +11763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12374,7 +11789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12400,7 +11815,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12426,7 +11841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12452,7 +11867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12478,7 +11893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12504,7 +11919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12530,7 +11945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12556,7 +11971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12660,7 +12075,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12686,7 +12101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12712,7 +12127,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12738,7 +12153,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12764,7 +12179,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12790,7 +12205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12816,7 +12231,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12842,7 +12257,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12868,7 +12283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12894,7 +12309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12920,7 +12335,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12946,7 +12361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12972,7 +12387,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12998,7 +12413,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13021,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13047,7 +12462,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13073,7 +12488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13099,7 +12514,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13125,7 +12540,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13148,7 +12563,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13171,7 +12586,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13194,7 +12609,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13217,7 +12632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13240,7 +12655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13266,7 +12681,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13290,7 +12705,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13316,7 +12731,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13339,7 +12754,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13368,7 +12783,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13394,7 +12809,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13420,7 +12835,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13446,7 +12861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13581,22 +12996,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13604,13 +13019,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>986</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>987</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>988</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13630,25 +13045,25 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>989</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="D337" s="28" t="s">
+      <c r="E337" s="5">
+        <v>1</v>
+      </c>
+      <c r="F337" s="5">
+        <v>1</v>
+      </c>
+      <c r="G337" s="5">
+        <v>1</v>
+      </c>
+      <c r="I337" s="32" t="s">
         <v>991</v>
-      </c>
-      <c r="E337" s="5">
-        <v>1</v>
-      </c>
-      <c r="F337" s="5">
-        <v>1</v>
-      </c>
-      <c r="G337" s="5">
-        <v>1</v>
-      </c>
-      <c r="I337" s="32" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13656,25 +13071,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="48" t="s">
+        <v>992</v>
+      </c>
+      <c r="C338" t="s">
         <v>993</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" s="49" t="s">
         <v>994</v>
       </c>
-      <c r="D338" s="49" t="s">
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
         <v>995</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="I338" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13682,11 +13097,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="C339" t="s">
         <v>997</v>
       </c>
-      <c r="C339" t="s">
-        <v>998</v>
-      </c>
       <c r="E339">
         <v>1</v>
       </c>
@@ -13697,69 +13112,66 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="340" ht="15.75" spans="1:9">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15.75">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="50" t="s">
+        <v>998</v>
+      </c>
+      <c r="C340" t="s">
         <v>999</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="50" t="s">
         <v>1000</v>
       </c>
-      <c r="D340" s="50" t="s">
+      <c r="E340" s="5">
+        <v>1</v>
+      </c>
+      <c r="F340" s="5">
+        <v>1</v>
+      </c>
+      <c r="G340" s="5">
+        <v>1</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>1001</v>
       </c>
-      <c r="E340" s="5">
-        <v>1</v>
-      </c>
-      <c r="F340" s="5">
-        <v>1</v>
-      </c>
-      <c r="G340" s="5">
-        <v>1</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>1002</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H339">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H339"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.11/game_module_config.xlsx
+++ b/config_5.11/game_module_config.xlsx
@@ -3156,13 +3156,13 @@
     <t>BYTaskManager</t>
   </si>
   <si>
-    <t>act_029_hlqjd</t>
+    <t>act_ty_hlqjd</t>
   </si>
   <si>
     <t>欢乐敲金蛋</t>
   </si>
   <si>
-    <t>Act_029_HLQJDManager</t>
+    <t>Act_ty_HLQJDManager</t>
   </si>
   <si>
     <t>5月17日23:59:59</t>
@@ -3844,10 +3844,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3887,13 +3887,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3929,6 +3922,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3937,21 +3938,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3966,14 +3983,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3981,6 +4046,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3995,87 +4067,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4084,7 +4077,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4129,7 +4122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4141,7 +4134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4153,7 +4146,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4165,13 +4188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4183,7 +4200,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4195,13 +4236,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4213,55 +4278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4273,43 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4349,45 +4330,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4435,6 +4377,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4443,10 +4424,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4455,19 +4436,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4476,118 +4457,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4645,13 +4626,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4663,34 +4644,34 @@
     <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4699,52 +4680,43 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -5071,11 +5043,11 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C267" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E275" sqref="E275"/>
+      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11836,7 +11808,7 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="46" t="s">
+      <c r="I266" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11862,7 +11834,7 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="46" t="s">
+      <c r="I267" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11888,7 +11860,7 @@
       <c r="G268" s="5">
         <v>1</v>
       </c>
-      <c r="I268" s="46" t="s">
+      <c r="I268" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11942,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="5"/>
-      <c r="I270" s="46" t="s">
+      <c r="I270" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11969,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="H271" s="5"/>
-      <c r="I271" s="46" t="s">
+      <c r="I271" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11996,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="H272" s="5"/>
-      <c r="I272" s="46" t="s">
+      <c r="I272" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12050,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="5"/>
-      <c r="I274" s="46" t="s">
+      <c r="I274" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12152,7 +12124,7 @@
       <c r="G278">
         <v>1</v>
       </c>
-      <c r="I278" s="46" t="s">
+      <c r="I278" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12175,7 +12147,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="46" t="s">
+      <c r="I279" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12201,7 +12173,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="46" t="s">
+      <c r="I280" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12227,7 +12199,7 @@
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="I281" s="46" t="s">
+      <c r="I281" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12253,7 +12225,7 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="46" t="s">
+      <c r="I282" s="32" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12279,7 +12251,7 @@
       <c r="G283" s="7">
         <v>1</v>
       </c>
-      <c r="I283" s="47" t="s">
+      <c r="I283" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12305,7 +12277,7 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="I284" s="47" t="s">
+      <c r="I284" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12331,7 +12303,7 @@
       <c r="G285">
         <v>0</v>
       </c>
-      <c r="I285" s="46" t="s">
+      <c r="I285" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12357,7 +12329,7 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="I286" s="47" t="s">
+      <c r="I286" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12383,7 +12355,7 @@
       <c r="G287" s="7">
         <v>1</v>
       </c>
-      <c r="I287" s="47" t="s">
+      <c r="I287" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12435,7 +12407,7 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="I289" s="47" t="s">
+      <c r="I289" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12461,7 +12433,7 @@
       <c r="G290" s="7">
         <v>1</v>
       </c>
-      <c r="I290" s="47" t="s">
+      <c r="I290" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12487,7 +12459,7 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="I291" s="47" t="s">
+      <c r="I291" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12513,7 +12485,7 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="I292" s="47" t="s">
+      <c r="I292" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12539,7 +12511,7 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="I293" s="47" t="s">
+      <c r="I293" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12565,7 +12537,7 @@
       <c r="G294" s="7">
         <v>1</v>
       </c>
-      <c r="I294" s="47" t="s">
+      <c r="I294" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12591,7 +12563,7 @@
       <c r="G295" s="7">
         <v>1</v>
       </c>
-      <c r="I295" s="47" t="s">
+      <c r="I295" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12695,7 +12667,7 @@
       <c r="G299" s="5">
         <v>1</v>
       </c>
-      <c r="I299" s="46" t="s">
+      <c r="I299" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12721,7 +12693,7 @@
       <c r="G300" s="5">
         <v>0</v>
       </c>
-      <c r="I300" s="46" t="s">
+      <c r="I300" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12747,7 +12719,7 @@
       <c r="G301" s="5">
         <v>0</v>
       </c>
-      <c r="I301" s="46" t="s">
+      <c r="I301" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12773,7 +12745,7 @@
       <c r="G302" s="5">
         <v>0</v>
       </c>
-      <c r="I302" s="46" t="s">
+      <c r="I302" s="32" t="s">
         <v>878</v>
       </c>
     </row>
@@ -12799,7 +12771,7 @@
       <c r="G303" s="5">
         <v>1</v>
       </c>
-      <c r="I303" s="46" t="s">
+      <c r="I303" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12877,7 +12849,7 @@
       <c r="G306" s="5">
         <v>1</v>
       </c>
-      <c r="I306" s="46" t="s">
+      <c r="I306" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12903,7 +12875,7 @@
       <c r="G307" s="5">
         <v>1</v>
       </c>
-      <c r="I307" s="46" t="s">
+      <c r="I307" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13082,7 +13054,7 @@
       <c r="G314" s="5">
         <v>1</v>
       </c>
-      <c r="I314" s="46" t="s">
+      <c r="I314" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13226,7 +13198,7 @@
       <c r="G320" s="6">
         <v>1</v>
       </c>
-      <c r="I320" s="48" t="s">
+      <c r="I320" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13234,7 +13206,7 @@
       <c r="A321" s="13">
         <v>320</v>
       </c>
-      <c r="B321" s="49" t="s">
+      <c r="B321" s="46" t="s">
         <v>940</v>
       </c>
       <c r="C321" s="37" t="s">
@@ -13249,7 +13221,7 @@
       <c r="G321" s="6">
         <v>1</v>
       </c>
-      <c r="I321" s="48" t="s">
+      <c r="I321" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13283,7 +13255,7 @@
       <c r="A323" s="13">
         <v>322</v>
       </c>
-      <c r="B323" s="50" t="s">
+      <c r="B323" s="47" t="s">
         <v>946</v>
       </c>
       <c r="C323" s="32" t="s">
@@ -13388,7 +13360,7 @@
       <c r="B327" s="33" t="s">
         <v>957</v>
       </c>
-      <c r="C327" s="46" t="s">
+      <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
@@ -13414,7 +13386,7 @@
       <c r="B328" s="33" t="s">
         <v>960</v>
       </c>
-      <c r="C328" s="46" t="s">
+      <c r="C328" s="32" t="s">
         <v>961</v>
       </c>
       <c r="D328" s="33" t="s">
@@ -13466,7 +13438,7 @@
       <c r="B330" s="31" t="s">
         <v>967</v>
       </c>
-      <c r="C330" s="46" t="s">
+      <c r="C330" s="32" t="s">
         <v>968</v>
       </c>
       <c r="D330" s="5" t="s">
@@ -13492,7 +13464,7 @@
       <c r="B331" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="C331" s="46" t="s">
+      <c r="C331" s="32" t="s">
         <v>971</v>
       </c>
       <c r="D331" t="s">
@@ -13518,7 +13490,7 @@
       <c r="B332" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="C332" s="46" t="s">
+      <c r="C332" s="32" t="s">
         <v>974</v>
       </c>
       <c r="D332" t="s">
@@ -13544,7 +13516,7 @@
       <c r="B333" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C333" s="46" t="s">
+      <c r="C333" s="32" t="s">
         <v>977</v>
       </c>
       <c r="D333" s="28" t="s">
@@ -13570,7 +13542,7 @@
       <c r="B334" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="C334" s="46" t="s">
+      <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
@@ -13619,7 +13591,7 @@
       <c r="B336" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="C336" s="46" t="s">
+      <c r="C336" s="32" t="s">
         <v>987</v>
       </c>
       <c r="D336" s="28" t="s">
@@ -13645,7 +13617,7 @@
       <c r="B337" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="C337" s="46" t="s">
+      <c r="C337" s="32" t="s">
         <v>990</v>
       </c>
       <c r="D337" s="28" t="s">
@@ -13668,13 +13640,13 @@
       <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="51" t="s">
+      <c r="B338" s="48" t="s">
         <v>993</v>
       </c>
       <c r="C338" t="s">
         <v>994</v>
       </c>
-      <c r="D338" s="52" t="s">
+      <c r="D338" s="49" t="s">
         <v>995</v>
       </c>
       <c r="E338">
